--- a/docs/tower_enemy_plans.xlsx
+++ b/docs/tower_enemy_plans.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edhoc\Documents\Programming\td_game\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88C4423E-E81F-4B84-9184-CBA44D7DD740}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60D145D9-9999-4679-8415-B954139D3F1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15480" xr2:uid="{9A0F9C71-3233-439C-8767-21219972ECCD}"/>
+    <workbookView xWindow="1380" yWindow="1380" windowWidth="26055" windowHeight="13455" xr2:uid="{9A0F9C71-3233-439C-8767-21219972ECCD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -571,12 +571,16 @@
   <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T16" sqref="P16:T27"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.85546875" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -620,7 +624,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -668,7 +672,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -716,7 +720,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -764,7 +768,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -812,7 +816,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -860,7 +864,7 @@
         <v>25.5</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -908,7 +912,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -956,7 +960,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -1004,7 +1008,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
@@ -1028,7 +1032,7 @@
       </c>
       <c r="L13" s="1"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -1052,7 +1056,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -1076,7 +1080,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -1100,7 +1104,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -1124,7 +1128,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -1148,7 +1152,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>33</v>
       </c>
@@ -1172,7 +1176,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>36</v>
       </c>
@@ -1196,7 +1200,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>37</v>
       </c>
@@ -1220,7 +1224,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>38</v>
       </c>
@@ -1244,7 +1248,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>39</v>
       </c>
@@ -1268,7 +1272,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>40</v>
       </c>
@@ -1292,7 +1296,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>42</v>
       </c>
@@ -1316,7 +1320,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>47</v>
       </c>
@@ -1340,7 +1344,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>43</v>
       </c>
@@ -1364,7 +1368,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>45</v>
       </c>
@@ -1388,7 +1392,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>44</v>
       </c>
@@ -1412,7 +1416,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>46</v>
       </c>

--- a/docs/tower_enemy_plans.xlsx
+++ b/docs/tower_enemy_plans.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edhoc\Documents\Programming\td_game\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60D145D9-9999-4679-8415-B954139D3F1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{611E91C7-DAAF-4242-90E1-6C1AD1E09C27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1380" yWindow="1380" windowWidth="26055" windowHeight="13455" xr2:uid="{9A0F9C71-3233-439C-8767-21219972ECCD}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{9A0F9C71-3233-439C-8767-21219972ECCD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -571,7 +571,7 @@
   <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -852,11 +852,11 @@
         <v>0.17</v>
       </c>
       <c r="L6" s="2">
-        <f t="shared" si="1"/>
+        <f>(D6*E6*G6*H6*I6)/J6</f>
         <v>0.17</v>
       </c>
       <c r="M6" s="4">
-        <f t="shared" si="2"/>
+        <f>AVERAGE(K6,L6)</f>
         <v>0.17</v>
       </c>
       <c r="N6">
@@ -908,7 +908,7 @@
         <v>0.1875</v>
       </c>
       <c r="N7">
-        <f t="shared" si="3"/>
+        <f>E7*H7</f>
         <v>30</v>
       </c>
     </row>
@@ -956,7 +956,7 @@
         <v>0.30000000000000004</v>
       </c>
       <c r="N8">
-        <f t="shared" si="3"/>
+        <f>E8*H8</f>
         <v>360</v>
       </c>
     </row>
@@ -1004,7 +1004,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="N9">
-        <f t="shared" si="3"/>
+        <f>E9*H9</f>
         <v>200</v>
       </c>
     </row>
@@ -1301,7 +1301,7 @@
         <v>42</v>
       </c>
       <c r="B25">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C25">
         <v>0.9</v>
@@ -1317,7 +1317,7 @@
       </c>
       <c r="G25">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -1325,7 +1325,7 @@
         <v>47</v>
       </c>
       <c r="B26">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="C26">
         <v>0.8</v>
@@ -1341,7 +1341,7 @@
       </c>
       <c r="G26">
         <f t="shared" si="4"/>
-        <v>32</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">

--- a/docs/tower_enemy_plans.xlsx
+++ b/docs/tower_enemy_plans.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edhoc\Documents\Programming\td_game\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{611E91C7-DAAF-4242-90E1-6C1AD1E09C27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8AF9CB6-F176-43A6-8B26-2EF4A57C379D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{9A0F9C71-3233-439C-8767-21219972ECCD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9A0F9C71-3233-439C-8767-21219972ECCD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -571,7 +571,7 @@
   <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/docs/tower_enemy_plans.xlsx
+++ b/docs/tower_enemy_plans.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edhoc\Documents\Programming\td_game\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8AF9CB6-F176-43A6-8B26-2EF4A57C379D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4397F049-0B36-444C-A511-DF751691FB49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9A0F9C71-3233-439C-8767-21219972ECCD}"/>
+    <workbookView xWindow="1410" yWindow="1395" windowWidth="26040" windowHeight="13440" xr2:uid="{9A0F9C71-3233-439C-8767-21219972ECCD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="50">
   <si>
     <t>Tower</t>
   </si>
@@ -181,6 +181,9 @@
   </si>
   <si>
     <t>HPps</t>
+  </si>
+  <si>
+    <t>Fire, rock</t>
   </si>
 </sst>
 </file>
@@ -571,7 +574,7 @@
   <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -716,7 +719,7 @@
         <v>0.16</v>
       </c>
       <c r="N3">
-        <f t="shared" ref="N3:N9" si="3">E3*H3</f>
+        <f t="shared" ref="N3:N6" si="3">E3*H3</f>
         <v>4</v>
       </c>
     </row>
@@ -1067,7 +1070,7 @@
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="E15" t="s">
         <v>31</v>
